--- a/file/waybill_temp_import.xlsx
+++ b/file/waybill_temp_import.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23895" windowHeight="9930"/>
+    <workbookView windowWidth="23895" windowHeight="10350"/>
   </bookViews>
   <sheets>
     <sheet name="运单" sheetId="1" r:id="rId1"/>
@@ -166,7 +166,7 @@
     <t>外请车</t>
   </si>
   <si>
-    <t>德邦空运</t>
+    <t>德邦物流</t>
   </si>
   <si>
     <t>888</t>
@@ -12264,10 +12264,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd\ "/>
   </numFmts>
   <fonts count="24">
@@ -12315,7 +12315,78 @@
       <charset val="0"/>
     </font>
     <font>
+      <sz val="18"/>
+      <color indexed="54"/>
+      <name val="等线 Light"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color indexed="12"/>
+      <name val="等线"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <b/>
+      <sz val="11"/>
+      <color indexed="9"/>
+      <name val="等线"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color indexed="23"/>
+      <name val="等线"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="62"/>
+      <name val="等线"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="20"/>
+      <name val="等线"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="52"/>
+      <name val="等线"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color indexed="20"/>
+      <name val="等线"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="54"/>
+      <name val="等线"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="10"/>
+      <name val="等线"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color indexed="54"/>
+      <name val="等线"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color indexed="9"/>
       <name val="等线"/>
@@ -12329,80 +12400,9 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color indexed="10"/>
-      <name val="等线"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color indexed="23"/>
-      <name val="等线"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="54"/>
-      <name val="等线"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color indexed="20"/>
-      <name val="等线"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="20"/>
-      <name val="等线"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="9"/>
-      <name val="等线"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color indexed="63"/>
-      <name val="等线"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color indexed="54"/>
-      <name val="等线"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <color indexed="54"/>
-      <name val="等线 Light"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color indexed="12"/>
-      <name val="等线"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="60"/>
-      <name val="等线"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="62"/>
       <name val="等线"/>
       <charset val="134"/>
     </font>
@@ -12415,13 +12415,13 @@
     </font>
     <font>
       <sz val="11"/>
-      <color indexed="52"/>
+      <color indexed="17"/>
       <name val="等线"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
-      <color indexed="17"/>
+      <color indexed="60"/>
       <name val="等线"/>
       <charset val="134"/>
     </font>
@@ -12432,6 +12432,18 @@
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="47"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="43"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -12447,19 +12459,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor indexed="26"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor indexed="22"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="43"/>
+        <fgColor indexed="31"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="47"/>
+        <fgColor indexed="42"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -12471,7 +12495,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="62"/>
+        <fgColor indexed="57"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -12483,19 +12507,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="26"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="57"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="51"/>
+        <fgColor indexed="62"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -12513,19 +12525,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="31"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
+        <fgColor indexed="51"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -12569,39 +12569,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thick">
-        <color indexed="44"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="63"/>
-      </left>
-      <right style="thin">
-        <color indexed="63"/>
-      </right>
-      <top style="thin">
-        <color indexed="63"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="63"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thick">
-        <color indexed="49"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="22"/>
       </left>
@@ -12613,26 +12580,6 @@
       </top>
       <bottom style="thin">
         <color indexed="22"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="49"/>
-      </top>
-      <bottom style="double">
-        <color indexed="49"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="44"/>
       </bottom>
       <diagonal/>
     </border>
@@ -12660,16 +12607,69 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color indexed="49"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color indexed="44"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="44"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="63"/>
+      </left>
+      <right style="thin">
+        <color indexed="63"/>
+      </right>
+      <top style="thin">
+        <color indexed="63"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="63"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="49"/>
+      </top>
+      <bottom style="double">
+        <color indexed="49"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -12678,133 +12678,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -13199,8 +13199,8 @@
   <sheetPr/>
   <dimension ref="A1:AN2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="Q2" sqref="Q2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" outlineLevelRow="1"/>
@@ -13355,7 +13355,7 @@
     </row>
     <row r="2" s="19" customFormat="1" spans="1:40">
       <c r="A2" s="20">
-        <v>43040</v>
+        <v>43056</v>
       </c>
       <c r="B2" s="19" t="s">
         <v>40</v>
